--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H710"/>
+  <dimension ref="A1:H732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20626,145 +20626,189 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr"/>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>£-18.0B</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>£-17.0B</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr"/>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>£-7.28B</t>
+        </is>
+      </c>
       <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr"/>
-      <c r="H602" t="n">
-        <v>3</v>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>£-6.8B</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F603" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H603" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F604" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H604" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>£-3.72B</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H605" t="n">
-        <v>3</v>
+          <t>£-3.9B</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -20774,529 +20818,533 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr">
         <is>
-          <t>26.0%</t>
-        </is>
-      </c>
-      <c r="H606" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H607" t="n">
-        <v>1</v>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H608" t="n">
-        <v>2</v>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr"/>
-      <c r="H609" t="n">
-        <v>2</v>
+          <t>€5.153B</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>€4.5B</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>€3.2B</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr"/>
-      <c r="H610" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H611" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H612" t="n">
-        <v>2</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr"/>
-      <c r="H613" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>BoE Credit Conditions Survey</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="n">
-        <v>3</v>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>12-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>3.187%</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="n">
-        <v>3</v>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>25-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H616" t="n">
-        <v>2</v>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>5-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F617" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H617" t="n">
-        <v>2</v>
+          <t>2.372%</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F618" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H618" t="n">
-        <v>3</v>
+          <t>€1.8B</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H619" t="n">
-        <v>3</v>
+          <t>$92.59B</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H620" t="n">
-        <v>1</v>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>ECB Monetary Policy Meeting Accounts</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H621" t="n">
-        <v>1</v>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -21306,777 +21354,817 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F622" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H622" t="n">
-        <v>2</v>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>£-18.0B</t>
+          <t>250k</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>£-17.0B</t>
-        </is>
-      </c>
-      <c r="H623" t="n">
-        <v>2</v>
+          <t>240.0K</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
       <c r="E624" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F624" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>£-6.8B</t>
-        </is>
-      </c>
-      <c r="H624" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F625" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H625" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F626" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H626" t="n">
-        <v>2</v>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr"/>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>£-3.9B</t>
-        </is>
-      </c>
-      <c r="H627" t="n">
-        <v>3</v>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr"/>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H628" t="n">
-        <v>3</v>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H629" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H630" t="n">
-        <v>3</v>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>€5.153B</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>€4.5B</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
-          <t>€3.2B</t>
-        </is>
-      </c>
-      <c r="H631" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H632" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H633" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H634" t="n">
-        <v>3</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H635" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>BoE Credit Conditions Survey</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
-      <c r="E636" t="inlineStr"/>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="n">
-        <v>3</v>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>12-Year Obligacion Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>3.187%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="n">
-        <v>3</v>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>25-Year Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
-      <c r="E638" t="inlineStr"/>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="n">
-        <v>3</v>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>5-Year Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>2.372%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr"/>
-      <c r="H639" t="n">
-        <v>3</v>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
-          <t>€1.8B</t>
-        </is>
-      </c>
-      <c r="H640" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>$92.59B</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr"/>
-      <c r="H641" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H642" t="n">
-        <v>3</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>ECB Monetary Policy Meeting Accounts</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-      <c r="H643" t="n">
-        <v>2</v>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H644" t="n">
-        <v>3</v>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>262.4K</t>
-        </is>
-      </c>
-      <c r="F645" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
-      </c>
-      <c r="G645" t="inlineStr">
-        <is>
-          <t>240.0K</t>
-        </is>
-      </c>
-      <c r="H645" t="n">
-        <v>2</v>
+          <t>4.245%</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -22086,33 +22174,27 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H646" t="n">
-        <v>1</v>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -22122,29 +22204,27 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H647" t="n">
-        <v>2</v>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -22154,101 +22234,67 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H648" t="n">
-        <v>2</v>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>BoC Gravelle Speech</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr">
-        <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H649" t="n">
-        <v>2</v>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="F650" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H650" t="n">
-        <v>2</v>
-      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -22258,631 +22304,717 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H651" t="n">
-        <v>2</v>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>¥-331.8B</t>
         </is>
       </c>
       <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H652" t="n">
-        <v>3</v>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥-74B</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H653" t="n">
-        <v>3</v>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H654" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr"/>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H655" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="n">
-        <v>3</v>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr"/>
-      <c r="H657" t="n">
-        <v>3</v>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
-      <c r="H658" t="n">
-        <v>3</v>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
-      <c r="H659" t="n">
-        <v>3</v>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
-      <c r="H660" t="n">
-        <v>3</v>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F661" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H661" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F662" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H662" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H663" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H664" t="n">
-        <v>2</v>
+          <t>75.3%</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H665" t="n">
-        <v>3</v>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>0.2402%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="n">
-        <v>3</v>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr"/>
-      <c r="H667" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
-      <c r="H668" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr"/>
-      <c r="H669" t="n">
-        <v>3</v>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr"/>
-      <c r="H670" t="n">
-        <v>3</v>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>BoC Gravelle Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-      <c r="H671" t="n">
-        <v>2</v>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="672">
@@ -22909,8 +23041,10 @@
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
-      <c r="H672" t="n">
-        <v>3</v>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="673">
@@ -22941,8 +23075,10 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H673" t="n">
-        <v>2</v>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="674">
@@ -22977,8 +23113,10 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H674" t="n">
-        <v>2</v>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="675">
@@ -23013,8 +23151,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H675" t="n">
-        <v>3</v>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="676">
@@ -23049,8 +23189,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H676" t="n">
-        <v>3</v>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="677">
@@ -23085,8 +23227,10 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H677" t="n">
-        <v>3</v>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="678">
@@ -23109,8 +23253,10 @@
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="n">
-        <v>3</v>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="679">
@@ -23141,8 +23287,10 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H679" t="n">
-        <v>3</v>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="680">
@@ -23165,8 +23313,10 @@
       <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="n">
-        <v>3</v>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="681">
@@ -23193,8 +23343,10 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="n">
-        <v>3</v>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="682">
@@ -23221,8 +23373,10 @@
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr"/>
-      <c r="H682" t="n">
-        <v>3</v>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="683">
@@ -23249,8 +23403,10 @@
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr"/>
-      <c r="H683" t="n">
-        <v>3</v>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="684">
@@ -23277,8 +23433,10 @@
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr"/>
-      <c r="H684" t="n">
-        <v>3</v>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="685">
@@ -23305,8 +23463,10 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="n">
-        <v>3</v>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="686">
@@ -23341,8 +23501,10 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H686" t="n">
-        <v>1</v>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="687">
@@ -23377,8 +23539,10 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H687" t="n">
-        <v>1</v>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="688">
@@ -23409,8 +23573,10 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H688" t="n">
-        <v>2</v>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="689">
@@ -23441,8 +23607,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H689" t="n">
-        <v>2</v>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="690">
@@ -23477,8 +23645,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H690" t="n">
-        <v>2</v>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="691">
@@ -23513,8 +23683,10 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H691" t="n">
-        <v>3</v>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="692">
@@ -23545,8 +23717,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H692" t="n">
-        <v>3</v>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="693">
@@ -23577,8 +23751,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H693" t="n">
-        <v>3</v>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="694">
@@ -23609,8 +23785,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H694" t="n">
-        <v>3</v>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="695">
@@ -23630,11 +23808,17 @@
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr"/>
-      <c r="H695" t="n">
-        <v>3</v>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="696">
@@ -23654,11 +23838,17 @@
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr"/>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr"/>
-      <c r="H696" t="n">
-        <v>3</v>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="697">
@@ -23681,116 +23871,110 @@
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="n">
-        <v>3</v>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr"/>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
         <is>
           <t>3</t>
@@ -23800,87 +23984,91 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr"/>
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr"/>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr"/>
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>CN</t>
@@ -23888,73 +24076,77 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr"/>
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr"/>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr"/>
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
         <is>
           <t>3</t>
@@ -23962,27 +24154,35 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr"/>
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
@@ -23994,46 +24194,690 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr"/>
-      <c r="C709" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Industrial Production YoY FinalNOV</t>
+        </is>
+      </c>
       <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr"/>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>02:45 PM</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>3-Month Bubill Auction</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>9-Month Bubill Auction</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Current AccountQ4</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Eurogroup Meeting</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>10-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>FDI (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>-27.9%</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceDEC</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Central Government DebtDEC</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr">
+        <is>
           <t>$1234M</t>
         </is>
       </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr">
         <is>
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
+      <c r="H732" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H732"/>
+  <dimension ref="A1:H712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20655,10 +20655,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -20689,10 +20687,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20727,10 +20723,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20765,10 +20759,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20799,10 +20791,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20833,10 +20823,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20871,10 +20859,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20909,10 +20895,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20947,10 +20931,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -20985,10 +20967,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -21023,10 +21003,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -21061,10 +21039,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -21099,10 +21075,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -21125,10 +21099,8 @@
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21155,10 +21127,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21181,10 +21151,8 @@
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21211,10 +21179,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21245,10 +21211,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -21275,10 +21239,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21309,10 +21271,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21335,10 +21295,8 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -21369,10 +21327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21407,10 +21363,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21445,10 +21399,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H624" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -21479,10 +21431,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21513,10 +21463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21551,10 +21499,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21589,10 +21535,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -21627,10 +21571,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21661,10 +21603,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21695,10 +21635,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21729,10 +21667,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21763,10 +21699,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -21793,10 +21727,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21823,10 +21755,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21853,10 +21783,8 @@
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21883,10 +21811,8 @@
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21913,10 +21839,8 @@
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21947,10 +21871,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21981,10 +21903,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -22019,10 +21939,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -22057,10 +21975,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -22095,10 +22011,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22125,10 +22039,8 @@
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -22155,10 +22067,8 @@
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -22185,10 +22095,8 @@
       </c>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -22215,10 +22123,8 @@
       </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -22245,10 +22151,8 @@
       </c>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22271,106 +22175,144 @@
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr"/>
-      <c r="C650" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr"/>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr"/>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
@@ -22380,29 +22322,33 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -22414,33 +22360,33 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
@@ -22452,25 +22398,21 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
@@ -22482,65 +22424,57 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
         <is>
           <t>3</t>
@@ -22550,363 +22484,327 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F659" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F660" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
       <c r="H660" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F661" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F662" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F663" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr"/>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
@@ -22918,29 +22816,33 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
@@ -22952,29 +22854,29 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
@@ -22986,29 +22888,29 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
@@ -23020,27 +22922,31 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H672" t="inlineStr">
         <is>
           <t>3</t>
@@ -23050,107 +22956,83 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A675" t="inlineStr"/>
       <c r="B675" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
           <t>3</t>
@@ -23160,97 +23042,69 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
@@ -23262,31 +23116,27 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
           <t>3</t>
@@ -23296,169 +23146,165 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr"/>
+      <c r="C680" t="inlineStr"/>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
@@ -23472,139 +23318,131 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G688" t="inlineStr"/>
       <c r="H688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
@@ -23616,71 +23454,63 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F690" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
@@ -23692,31 +23522,27 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G692" t="inlineStr"/>
       <c r="H692" t="inlineStr">
         <is>
           <t>3</t>
@@ -23726,31 +23552,23 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -23760,31 +23578,23 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
         <is>
           <t>3</t>
@@ -23794,23 +23604,23 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F695" t="inlineStr"/>
@@ -23824,27 +23634,31 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H696" t="inlineStr">
         <is>
           <t>3</t>
@@ -23852,23 +23666,23 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
@@ -23880,101 +23694,109 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr"/>
-      <c r="C698" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr"/>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H701" t="inlineStr">
         <is>
           <t>3</t>
@@ -23984,91 +23806,87 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr"/>
-      <c r="C702" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr"/>
-      <c r="H702" t="inlineStr"/>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A703" t="inlineStr"/>
       <c r="B703" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E703" t="inlineStr"/>
       <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A704" t="inlineStr"/>
       <c r="B704" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G704" t="inlineStr"/>
       <c r="H704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A705" t="inlineStr"/>
       <c r="B705" t="inlineStr">
         <is>
           <t>CN</t>
@@ -24076,77 +23894,73 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A706" t="inlineStr"/>
       <c r="B706" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E706" t="inlineStr"/>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr"/>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A707" t="inlineStr"/>
       <c r="B707" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr"/>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H707" t="inlineStr">
         <is>
           <t>3</t>
@@ -24154,35 +23968,27 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A708" t="inlineStr"/>
       <c r="B708" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
@@ -24194,61 +24000,45 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr"/>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H710" t="inlineStr">
         <is>
           <t>3</t>
@@ -24258,12 +24048,12 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24272,32 +24062,28 @@
         </is>
       </c>
       <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24308,576 +24094,16 @@
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>02:45 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr"/>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr"/>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr"/>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr"/>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr"/>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr"/>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D730" t="inlineStr"/>
-      <c r="E730" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
-      <c r="H731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H732" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:H690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22203,10 +22203,8 @@
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -22237,10 +22235,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -22275,10 +22271,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="653">
@@ -22313,10 +22307,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -22351,10 +22343,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22389,10 +22379,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22415,10 +22403,8 @@
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22449,10 +22435,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22475,10 +22459,8 @@
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22505,10 +22487,8 @@
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22535,10 +22515,8 @@
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22565,10 +22543,8 @@
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22595,10 +22571,8 @@
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22625,10 +22599,8 @@
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -22663,10 +22635,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H664" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -22701,10 +22671,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H665" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -22735,10 +22703,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="667">
@@ -22769,10 +22735,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="668">
@@ -22807,10 +22771,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H668" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -22845,10 +22807,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -22879,10 +22839,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22913,10 +22871,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22947,10 +22903,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -22977,10 +22931,8 @@
       </c>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -23007,10 +22959,8 @@
       </c>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -23033,10 +22983,8 @@
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -23077,10 +23025,8 @@
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H677" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="678">
@@ -23107,10 +23053,8 @@
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23137,100 +23081,94 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr"/>
-      <c r="C680" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr"/>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A681" t="inlineStr"/>
       <c r="B681" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E681" t="inlineStr"/>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A682" t="inlineStr"/>
       <c r="B682" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
           <t>CN</t>
@@ -23238,77 +23176,73 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A684" t="inlineStr"/>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E684" t="inlineStr"/>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H685" t="inlineStr">
         <is>
           <t>3</t>
@@ -23316,35 +23250,27 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
@@ -23356,61 +23282,45 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr"/>
       <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr"/>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H688" t="inlineStr">
         <is>
           <t>3</t>
@@ -23420,12 +23330,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23434,32 +23344,28 @@
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23470,640 +23376,16 @@
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>02:45 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr"/>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr"/>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr"/>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr"/>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr"/>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr"/>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr"/>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -22990,99 +22990,113 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr"/>
-      <c r="C676" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr"/>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="n">
-        <v>2</v>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="n">
-        <v>3</v>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
-      <c r="H679" t="n">
-        <v>3</v>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="680">

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H737"/>
+  <dimension ref="A1:H715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17781,10 +17781,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17815,10 +17813,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17853,10 +17849,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17887,10 +17881,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17925,10 +17917,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17959,10 +17949,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17993,10 +17981,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -18031,10 +18017,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -18065,10 +18049,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -18099,10 +18081,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -18133,10 +18113,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -18167,10 +18145,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -18205,10 +18181,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -18243,10 +18217,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H521" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -18281,10 +18253,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18319,10 +18289,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18345,10 +18313,8 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -18383,10 +18349,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18421,10 +18385,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18459,10 +18421,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -18497,10 +18457,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -18535,10 +18493,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18561,10 +18517,8 @@
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -18599,10 +18553,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H531" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -18637,10 +18589,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -18675,10 +18625,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18705,10 +18653,8 @@
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18735,10 +18681,8 @@
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18769,10 +18713,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18803,10 +18745,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18833,10 +18773,8 @@
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -18863,10 +18801,8 @@
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18893,10 +18829,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18923,10 +18857,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18953,10 +18885,8 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18991,10 +18921,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -19021,10 +18949,8 @@
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -19059,10 +18985,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -19097,10 +19021,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H546" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -19135,10 +19057,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H547" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -19173,10 +19093,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H548" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -19211,10 +19129,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H549" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -19245,10 +19161,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -19279,10 +19193,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -19317,10 +19229,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -19343,10 +19253,8 @@
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H553" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -19369,10 +19277,8 @@
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -19399,10 +19305,8 @@
       </c>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -19429,10 +19333,8 @@
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -19459,10 +19361,8 @@
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -19489,10 +19389,8 @@
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19519,10 +19417,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -19549,10 +19445,8 @@
       </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19579,10 +19473,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19609,10 +19501,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19639,10 +19529,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19677,10 +19565,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -19715,10 +19601,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -19741,10 +19625,8 @@
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -19771,10 +19653,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19805,10 +19685,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H568" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -19835,10 +19713,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19861,10 +19737,8 @@
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -19887,10 +19761,8 @@
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19913,10 +19785,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19943,10 +19813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19973,10 +19841,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -20003,10 +19869,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -20029,10 +19893,8 @@
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -20051,10 +19913,8 @@
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr"/>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -20081,10 +19941,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -20111,10 +19969,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -20141,10 +19997,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -20181,10 +20035,8 @@
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -20215,10 +20067,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -20249,10 +20099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -20287,10 +20135,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -20325,10 +20171,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -20363,10 +20207,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H587" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -20401,10 +20243,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -20431,10 +20271,8 @@
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20461,10 +20299,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -20499,10 +20335,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20537,10 +20371,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -20567,10 +20399,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20597,10 +20427,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20627,10 +20455,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20665,10 +20491,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20703,10 +20527,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20741,10 +20563,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20779,10 +20599,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20817,10 +20635,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H600" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -20851,10 +20667,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -20889,10 +20703,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20927,10 +20739,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20961,10 +20771,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20999,10 +20807,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -21037,10 +20843,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -21071,10 +20875,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -21105,10 +20907,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -21143,10 +20943,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -21181,10 +20979,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -21219,10 +21015,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -21257,10 +21051,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -21295,10 +21087,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -21333,10 +21123,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21371,10 +21159,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21397,10 +21183,8 @@
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21427,10 +21211,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21453,10 +21235,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21483,10 +21263,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21517,10 +21295,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -21547,10 +21323,8 @@
       </c>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21581,10 +21355,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21607,10 +21379,8 @@
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21641,10 +21411,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -21679,10 +21447,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21717,10 +21483,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H626" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -21751,10 +21515,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21785,10 +21547,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -21823,10 +21583,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21861,10 +21619,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -21899,10 +21655,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -21933,10 +21687,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21967,10 +21719,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -22001,10 +21751,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -22035,10 +21783,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -22065,10 +21811,8 @@
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -22095,10 +21839,8 @@
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -22125,10 +21867,8 @@
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -22155,10 +21895,8 @@
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -22185,10 +21923,8 @@
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -22219,10 +21955,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -22253,10 +21987,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -22291,10 +22023,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -22329,10 +22059,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -22367,10 +22095,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -22397,10 +22123,8 @@
       </c>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -22427,10 +22151,8 @@
       </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -22457,10 +22179,8 @@
       </c>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22487,10 +22207,8 @@
       </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -22517,10 +22235,8 @@
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -22543,110 +22259,144 @@
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr"/>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr"/>
-      <c r="C652" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D652" t="inlineStr"/>
-      <c r="E652" t="inlineStr"/>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr"/>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
@@ -22656,29 +22406,33 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
@@ -22690,33 +22444,33 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
@@ -22728,25 +22482,21 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
@@ -22758,65 +22508,57 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G660" t="inlineStr"/>
       <c r="H660" t="inlineStr">
         <is>
           <t>3</t>
@@ -22826,363 +22568,327 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F661" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F662" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F663" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F666" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
@@ -23194,29 +22900,33 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F671" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
@@ -23228,29 +22938,29 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
@@ -23262,29 +22972,29 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
@@ -23296,27 +23006,31 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H674" t="inlineStr">
         <is>
           <t>3</t>
@@ -23326,107 +23040,83 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A677" t="inlineStr"/>
       <c r="B677" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
           <t>3</t>
@@ -23436,97 +23126,69 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
       <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
@@ -23538,31 +23200,27 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
         <is>
           <t>3</t>
@@ -23572,169 +23230,165 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
@@ -23748,139 +23402,131 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G690" t="inlineStr"/>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
@@ -23892,71 +23538,63 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H693" t="inlineStr">
@@ -23968,31 +23606,27 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
         <is>
           <t>3</t>
@@ -24002,31 +23636,23 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G695" t="inlineStr"/>
       <c r="H695" t="inlineStr">
         <is>
           <t>3</t>
@@ -24036,31 +23662,23 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
           <t>3</t>
@@ -24070,23 +23688,23 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
@@ -24100,27 +23718,31 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H698" t="inlineStr">
         <is>
           <t>3</t>
@@ -24128,23 +23750,23 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr"/>
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
@@ -24156,101 +23778,109 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr"/>
-      <c r="C700" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H703" t="inlineStr">
         <is>
           <t>3</t>
@@ -24260,91 +23890,87 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr"/>
-      <c r="C704" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr"/>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr"/>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A705" t="inlineStr"/>
       <c r="B705" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E705" t="inlineStr"/>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A706" t="inlineStr"/>
       <c r="B706" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A707" t="inlineStr"/>
       <c r="B707" t="inlineStr">
         <is>
           <t>CN</t>
@@ -24352,77 +23978,73 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A708" t="inlineStr"/>
       <c r="B708" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A709" t="inlineStr"/>
       <c r="B709" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr"/>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H709" t="inlineStr">
         <is>
           <t>3</t>
@@ -24430,35 +24052,27 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A710" t="inlineStr"/>
       <c r="B710" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H710" t="inlineStr">
@@ -24470,61 +24084,45 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr"/>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H712" t="inlineStr">
         <is>
           <t>3</t>
@@ -24534,12 +24132,12 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24548,32 +24146,28 @@
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24584,13 +24178,13 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H714" t="inlineStr">
@@ -24600,646 +24194,22 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>02:45 PM</t>
-        </is>
-      </c>
+      <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G715" t="inlineStr"/>
       <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr"/>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr"/>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr"/>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr"/>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr"/>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D730" t="inlineStr"/>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr"/>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr"/>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr"/>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr"/>
-      <c r="G733" t="inlineStr"/>
-      <c r="H733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr"/>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D737" t="inlineStr"/>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H715"/>
+  <dimension ref="A1:H694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22287,10 +22287,8 @@
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -22321,10 +22319,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -22359,10 +22355,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -22397,10 +22391,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22435,10 +22427,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22473,10 +22463,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22499,10 +22487,8 @@
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22533,10 +22519,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22559,10 +22543,8 @@
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22589,10 +22571,8 @@
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22619,10 +22599,8 @@
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22649,10 +22627,8 @@
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -22679,10 +22655,8 @@
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="665">
@@ -22709,10 +22683,8 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -22747,10 +22719,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H666" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -22785,10 +22755,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H667" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -22819,10 +22787,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H668" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -22853,10 +22819,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -22891,10 +22855,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H670" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -22929,10 +22891,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22963,10 +22923,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -22997,10 +22955,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -23031,10 +22987,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -23061,10 +23015,8 @@
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -23091,10 +23043,8 @@
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -23117,10 +23067,8 @@
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23161,10 +23109,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H679" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="680">
@@ -23191,10 +23137,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23221,100 +23165,94 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr"/>
-      <c r="C682" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr"/>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr"/>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A684" t="inlineStr"/>
       <c r="B684" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr">
         <is>
           <t>CN</t>
@@ -23322,77 +23260,73 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A687" t="inlineStr"/>
       <c r="B687" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H687" t="inlineStr">
         <is>
           <t>3</t>
@@ -23400,35 +23334,27 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A688" t="inlineStr"/>
       <c r="B688" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
@@ -23440,61 +23366,45 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H690" t="inlineStr">
         <is>
           <t>3</t>
@@ -23504,12 +23414,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23518,32 +23428,28 @@
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23554,13 +23460,13 @@
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
@@ -23572,31 +23478,27 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -23604,11 +23506,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A694" t="inlineStr"/>
       <c r="B694" t="inlineStr">
         <is>
           <t>EA</t>
@@ -23616,600 +23514,14 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>3-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>9-Month Bubill Auction</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr"/>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr"/>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr"/>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr"/>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr"/>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr"/>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr"/>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr"/>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr"/>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr"/>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H694"/>
+  <dimension ref="A1:H696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23074,99 +23074,113 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr"/>
-      <c r="C678" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr"/>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="n">
-        <v>2</v>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="n">
-        <v>3</v>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
-      <c r="H681" t="n">
-        <v>3</v>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="682">
@@ -23506,15 +23520,19 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="inlineStr"/>
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
@@ -23527,6 +23545,54 @@
         </is>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr"/>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>ECOFIN Meeting</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H696"/>
+  <dimension ref="A1:H718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20004,145 +20004,189 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr"/>
-      <c r="C581" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>£-18.0B</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>£-17.0B</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>£-7.28B</t>
+        </is>
+      </c>
       <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr"/>
-      <c r="H582" t="n">
-        <v>3</v>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>£-6.8B</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F583" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H583" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F584" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H584" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>£-3.72B</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H585" t="n">
-        <v>3</v>
+          <t>£-3.9B</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -20152,529 +20196,533 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr">
         <is>
-          <t>26.0%</t>
-        </is>
-      </c>
-      <c r="H586" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="H587" t="n">
-        <v>1</v>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H588" t="n">
-        <v>2</v>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr"/>
-      <c r="H589" t="n">
-        <v>2</v>
+          <t>€5.153B</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>€4.5B</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>€3.2B</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr"/>
-      <c r="H590" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H591" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H592" t="n">
-        <v>2</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F593" t="inlineStr"/>
-      <c r="G593" t="inlineStr"/>
-      <c r="H593" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>BoE Credit Conditions Survey</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="n">
-        <v>3</v>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>12-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>3.187%</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="n">
-        <v>3</v>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>25-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H596" t="n">
-        <v>2</v>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>5-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F597" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H597" t="n">
-        <v>2</v>
+          <t>2.372%</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F598" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H598" t="n">
-        <v>3</v>
+          <t>€1.8B</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F599" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H599" t="n">
-        <v>3</v>
+          <t>$92.59B</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F600" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>ECB Monetary Policy Meeting Accounts</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -20684,777 +20732,817 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H602" t="n">
-        <v>2</v>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>£-18.0B</t>
+          <t>250k</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>£-17.0B</t>
-        </is>
-      </c>
-      <c r="H603" t="n">
-        <v>2</v>
+          <t>240.0K</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F604" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>£-6.8B</t>
-        </is>
-      </c>
-      <c r="H604" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H605" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H606" t="n">
-        <v>2</v>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F607" t="inlineStr"/>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>£-3.9B</t>
-        </is>
-      </c>
-      <c r="H607" t="n">
-        <v>3</v>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F608" t="inlineStr"/>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H608" t="n">
-        <v>3</v>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H609" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H610" t="n">
-        <v>3</v>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>€5.153B</t>
-        </is>
-      </c>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>€4.5B</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr">
         <is>
-          <t>€3.2B</t>
-        </is>
-      </c>
-      <c r="H611" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H612" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H613" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F614" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H614" t="n">
-        <v>3</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr"/>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H615" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>BoE Credit Conditions Survey</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr"/>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="n">
-        <v>3</v>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>12-Year Obligacion Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>3.187%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="n">
-        <v>3</v>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>25-Year Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="n">
-        <v>3</v>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>5-Year Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>2.372%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr"/>
-      <c r="H619" t="n">
-        <v>3</v>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr">
         <is>
-          <t>€1.8B</t>
-        </is>
-      </c>
-      <c r="H620" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr">
         <is>
-          <t>$92.59B</t>
-        </is>
-      </c>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr"/>
-      <c r="H621" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F622" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H622" t="n">
-        <v>3</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>ECB Monetary Policy Meeting Accounts</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
-      <c r="H623" t="n">
-        <v>2</v>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
       <c r="E624" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H624" t="n">
-        <v>3</v>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>262.4K</t>
-        </is>
-      </c>
-      <c r="F625" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
-      </c>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>240.0K</t>
-        </is>
-      </c>
-      <c r="H625" t="n">
-        <v>2</v>
+          <t>4.245%</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr"/>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -21464,33 +21552,27 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F626" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H626" t="n">
-        <v>1</v>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -21500,29 +21582,27 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H627" t="n">
-        <v>2</v>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -21532,101 +21612,67 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H628" t="n">
-        <v>2</v>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>BoC Gravelle Speech</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H629" t="n">
-        <v>2</v>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H630" t="n">
-        <v>2</v>
-      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -21636,631 +21682,721 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H631" t="n">
-        <v>2</v>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>¥-331.8B</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H632" t="n">
-        <v>3</v>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>¥-74B</t>
         </is>
       </c>
       <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H633" t="n">
-        <v>3</v>
+      <c r="G633" t="inlineStr"/>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H634" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="F635" t="inlineStr"/>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H635" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="n">
-        <v>3</v>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
-      <c r="H637" t="n">
-        <v>3</v>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
-      <c r="G638" t="inlineStr"/>
-      <c r="H638" t="n">
-        <v>3</v>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr"/>
-      <c r="H639" t="n">
-        <v>3</v>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr"/>
-      <c r="H640" t="n">
-        <v>3</v>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H641" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H642" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H643" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F644" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H644" t="n">
-        <v>2</v>
+          <t>75.3%</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H645" t="n">
-        <v>3</v>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>0.2402%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="n">
-        <v>3</v>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr"/>
-      <c r="H647" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
-      <c r="H648" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr"/>
-      <c r="H649" t="n">
-        <v>3</v>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr"/>
-      <c r="H650" t="n">
-        <v>3</v>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>BoC Gravelle Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr"/>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
-      <c r="H651" t="n">
-        <v>2</v>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="652">
@@ -22287,8 +22423,10 @@
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="n">
-        <v>3</v>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="653">
@@ -22319,8 +22457,10 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H653" t="n">
-        <v>2</v>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="654">
@@ -22355,8 +22495,10 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H654" t="n">
-        <v>2</v>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="655">
@@ -22391,8 +22533,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H655" t="n">
-        <v>3</v>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="656">
@@ -22427,8 +22571,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H656" t="n">
-        <v>3</v>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="657">
@@ -22463,8 +22609,10 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H657" t="n">
-        <v>3</v>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="658">
@@ -22487,8 +22635,10 @@
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="n">
-        <v>3</v>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="659">
@@ -22519,8 +22669,10 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H659" t="n">
-        <v>3</v>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="660">
@@ -22543,8 +22695,10 @@
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="n">
-        <v>3</v>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="661">
@@ -22571,8 +22725,10 @@
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
-      <c r="H661" t="n">
-        <v>3</v>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="662">
@@ -22599,8 +22755,10 @@
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="n">
-        <v>3</v>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="663">
@@ -22627,8 +22785,10 @@
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="n">
-        <v>3</v>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="664">
@@ -22655,8 +22815,10 @@
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="n">
-        <v>3</v>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="665">
@@ -22683,8 +22845,10 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="n">
-        <v>3</v>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="666">
@@ -22719,8 +22883,10 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H666" t="n">
-        <v>1</v>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="667">
@@ -22755,8 +22921,10 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H667" t="n">
-        <v>1</v>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="668">
@@ -22787,8 +22955,10 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H668" t="n">
-        <v>2</v>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="669">
@@ -22819,8 +22989,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H669" t="n">
-        <v>2</v>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="670">
@@ -22855,8 +23027,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H670" t="n">
-        <v>2</v>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="671">
@@ -22891,8 +23065,10 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H671" t="n">
-        <v>3</v>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="672">
@@ -22923,8 +23099,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H672" t="n">
-        <v>3</v>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="673">
@@ -22955,8 +23133,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H673" t="n">
-        <v>3</v>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="674">
@@ -22987,8 +23167,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H674" t="n">
-        <v>3</v>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="675">
@@ -23015,8 +23197,10 @@
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="n">
-        <v>3</v>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="676">
@@ -23043,8 +23227,10 @@
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr"/>
-      <c r="H676" t="n">
-        <v>3</v>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="677">
@@ -23067,116 +23253,110 @@
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="n">
-        <v>3</v>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
         <is>
           <t>3</t>
@@ -23186,87 +23366,91 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr"/>
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr"/>
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>05:20 AM</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr"/>
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>CN</t>
@@ -23274,73 +23458,77 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr"/>
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr"/>
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
         <is>
           <t>3</t>
@@ -23348,27 +23536,35 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="inlineStr"/>
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
@@ -23380,45 +23576,61 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr"/>
-      <c r="C689" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Industrial Production YoY FinalNOV</t>
+        </is>
+      </c>
       <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr"/>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G690" t="inlineStr"/>
       <c r="H690" t="inlineStr">
         <is>
           <t>3</t>
@@ -23428,12 +23640,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23442,28 +23654,32 @@
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23474,13 +23690,13 @@
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
@@ -23492,27 +23708,31 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -23522,21 +23742,25 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
@@ -23548,17 +23772,17 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
@@ -23572,15 +23796,19 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
@@ -23593,6 +23821,618 @@
         </is>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Current AccountQ4</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Eurogroup Meeting</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>10-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>FDI (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>-27.9%</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr"/>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceDEC</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr"/>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Central Government DebtDEC</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>$1234M</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>40-Year JGB Auction</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>MAS 12-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>ECOFIN Meeting</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H718"/>
+  <dimension ref="A1:H703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20033,10 +20033,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -20067,10 +20065,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -20105,10 +20101,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -20143,10 +20137,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -20177,10 +20169,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -20211,10 +20201,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -20249,10 +20237,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20287,10 +20273,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -20325,10 +20309,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20363,10 +20345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -20401,10 +20381,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H591" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -20439,10 +20417,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -20477,10 +20453,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20503,10 +20477,8 @@
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20533,10 +20505,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20559,10 +20529,8 @@
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -20589,10 +20557,8 @@
       </c>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20623,10 +20589,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -20653,10 +20617,8 @@
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20687,10 +20649,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20713,10 +20673,8 @@
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -20747,10 +20705,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -20785,10 +20741,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20823,10 +20777,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H604" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -20857,10 +20809,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -20891,10 +20841,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -20929,10 +20877,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -20967,10 +20913,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -21005,10 +20949,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -21039,10 +20981,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -21073,10 +21013,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -21107,10 +21045,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -21141,10 +21077,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -21171,10 +21105,8 @@
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21201,10 +21133,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21231,10 +21161,8 @@
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21261,10 +21189,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21291,10 +21217,8 @@
       </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21325,10 +21249,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21359,10 +21281,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21397,10 +21317,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -21435,10 +21353,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -21473,10 +21389,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -21503,10 +21417,8 @@
       </c>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -21533,10 +21445,8 @@
       </c>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -21563,10 +21473,8 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -21593,10 +21501,8 @@
       </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -21623,10 +21529,8 @@
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21649,110 +21553,144 @@
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr"/>
-      <c r="H630" t="inlineStr"/>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr"/>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H633" t="inlineStr">
         <is>
           <t>3</t>
@@ -21762,29 +21700,33 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F634" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
@@ -21796,33 +21738,33 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
@@ -21834,25 +21776,21 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
       <c r="H636" t="inlineStr">
@@ -21864,65 +21802,57 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G638" t="inlineStr"/>
       <c r="H638" t="inlineStr">
         <is>
           <t>3</t>
@@ -21932,363 +21862,327 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
       <c r="H639" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr"/>
       <c r="H642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F643" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F644" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F647" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -22300,29 +22194,33 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
@@ -22334,29 +22232,29 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
@@ -22368,29 +22266,29 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
@@ -22402,27 +22300,31 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H652" t="inlineStr">
         <is>
           <t>3</t>
@@ -22432,107 +22334,83 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A655" t="inlineStr"/>
       <c r="B655" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
@@ -22542,97 +22420,69 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
       <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F657" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
@@ -22644,31 +22494,27 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
           <t>3</t>
@@ -22678,169 +22524,165 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr"/>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
@@ -22854,139 +22696,131 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G668" t="inlineStr"/>
       <c r="H668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
@@ -22998,71 +22832,63 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
@@ -23074,31 +22900,27 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
           <t>3</t>
@@ -23108,31 +22930,23 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
           <t>3</t>
@@ -23142,31 +22956,23 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
           <t>3</t>
@@ -23176,23 +22982,23 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
@@ -23206,27 +23012,31 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H676" t="inlineStr">
         <is>
           <t>3</t>
@@ -23234,23 +23044,23 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
@@ -23262,101 +23072,109 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr"/>
-      <c r="C678" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr"/>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H681" t="inlineStr">
         <is>
           <t>3</t>
@@ -23366,91 +23184,87 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr"/>
-      <c r="C682" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr"/>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr"/>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A684" t="inlineStr"/>
       <c r="B684" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr">
         <is>
           <t>CN</t>
@@ -23458,77 +23272,73 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A687" t="inlineStr"/>
       <c r="B687" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H687" t="inlineStr">
         <is>
           <t>3</t>
@@ -23536,35 +23346,27 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A688" t="inlineStr"/>
       <c r="B688" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
@@ -23576,61 +23378,45 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H690" t="inlineStr">
         <is>
           <t>3</t>
@@ -23640,12 +23426,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23654,32 +23440,28 @@
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23690,13 +23472,13 @@
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
@@ -23708,31 +23490,27 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -23742,25 +23520,21 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
@@ -23772,17 +23546,17 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
@@ -23798,139 +23572,159 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr"/>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr"/>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H700" t="inlineStr">
         <is>
           <t>3</t>
@@ -23940,23 +23734,31 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H701" t="inlineStr">
         <is>
           <t>3</t>
@@ -23966,468 +23768,54 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr"/>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
+      <c r="A703" t="inlineStr"/>
       <c r="B703" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E703" t="inlineStr"/>
       <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr"/>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr"/>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr"/>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr"/>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr"/>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr"/>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr"/>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr"/>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>40-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr"/>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H703"/>
+  <dimension ref="A1:H681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21581,10 +21581,8 @@
       </c>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr"/>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21615,10 +21613,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -21653,10 +21649,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21691,10 +21685,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -21729,10 +21721,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21767,10 +21757,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21793,10 +21781,8 @@
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21827,10 +21813,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21853,10 +21837,8 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21883,10 +21865,8 @@
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21913,10 +21893,8 @@
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -21943,10 +21921,8 @@
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -21973,10 +21949,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -22003,10 +21977,8 @@
       </c>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22041,10 +22013,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H644" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -22079,10 +22049,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H645" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -22113,10 +22081,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -22147,10 +22113,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -22185,10 +22149,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -22223,10 +22185,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -22257,10 +22217,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -22291,10 +22249,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -22325,10 +22281,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -22355,10 +22309,8 @@
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr"/>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -22385,10 +22337,8 @@
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr"/>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22411,10 +22361,8 @@
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr"/>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22455,10 +22403,8 @@
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -22485,10 +22431,8 @@
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22515,100 +22459,94 @@
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr"/>
-      <c r="C660" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr"/>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A661" t="inlineStr"/>
       <c r="B661" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
-      <c r="E661" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A662" t="inlineStr"/>
       <c r="B662" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A663" t="inlineStr"/>
       <c r="B663" t="inlineStr">
         <is>
           <t>CN</t>
@@ -22616,77 +22554,73 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A665" t="inlineStr"/>
       <c r="B665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr"/>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H665" t="inlineStr">
         <is>
           <t>3</t>
@@ -22694,35 +22628,27 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A666" t="inlineStr"/>
       <c r="B666" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
@@ -22734,61 +22660,45 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H668" t="inlineStr">
         <is>
           <t>3</t>
@@ -22798,12 +22708,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -22812,32 +22722,28 @@
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -22848,13 +22754,13 @@
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
@@ -22866,31 +22772,27 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
           <t>3</t>
@@ -22900,25 +22802,21 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
@@ -22930,17 +22828,17 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
@@ -22956,139 +22854,159 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H678" t="inlineStr">
         <is>
           <t>3</t>
@@ -23098,23 +23016,31 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H679" t="inlineStr">
         <is>
           <t>3</t>
@@ -23124,698 +23050,54 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
+      <c r="A681" t="inlineStr"/>
       <c r="B681" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E681" t="inlineStr"/>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr"/>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr"/>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr"/>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr"/>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr"/>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr"/>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr"/>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>40-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYDEC</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr"/>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -22368,99 +22368,113 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr"/>
-      <c r="C656" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="n">
-        <v>2</v>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="n">
-        <v>3</v>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
-      <c r="H659" t="n">
-        <v>3</v>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="660">

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1008"/>
+  <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22691,10 +22691,8 @@
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22739,10 +22737,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22773,10 +22769,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22811,10 +22805,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22849,10 +22841,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22887,10 +22877,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -22913,10 +22901,8 @@
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -22951,10 +22937,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -22985,10 +22969,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23019,10 +23001,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23049,10 +23029,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23079,10 +23057,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23109,10 +23085,8 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -23147,10 +23121,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -23181,10 +23153,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23215,10 +23185,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23249,10 +23217,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23279,10 +23245,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23309,10 +23273,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23339,10 +23301,8 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23373,10 +23333,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23403,10 +23361,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23433,10 +23389,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23459,10 +23413,8 @@
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23489,10 +23441,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23519,10 +23469,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23549,10 +23497,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23583,10 +23529,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23613,10 +23557,8 @@
         </is>
       </c>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23647,10 +23589,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23681,10 +23621,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23707,10 +23645,8 @@
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23729,10 +23665,8 @@
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23777,10 +23711,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -23807,10 +23739,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23837,10 +23767,8 @@
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H705" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -23875,10 +23803,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -23913,10 +23839,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23947,10 +23871,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23981,10 +23903,8 @@
         </is>
       </c>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24011,10 +23931,8 @@
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24049,10 +23967,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24083,10 +23999,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24113,10 +24027,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24143,10 +24055,8 @@
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24177,10 +24087,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24211,10 +24119,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24249,10 +24155,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24283,10 +24187,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24309,10 +24211,8 @@
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24343,10 +24243,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24369,10 +24267,8 @@
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24407,10 +24303,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -24441,10 +24335,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24471,10 +24363,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24501,10 +24391,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24531,10 +24419,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24561,10 +24447,8 @@
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24587,10 +24471,8 @@
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24625,10 +24507,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24659,10 +24539,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -24697,10 +24575,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H731" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -24735,10 +24611,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -24773,10 +24647,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24807,10 +24679,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24841,10 +24711,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24875,10 +24743,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24913,10 +24779,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24943,10 +24807,8 @@
       </c>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24969,10 +24831,8 @@
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -25007,10 +24867,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25037,10 +24895,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25063,10 +24919,8 @@
       </c>
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr"/>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -25111,10 +24965,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25145,10 +24997,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -25171,10 +25021,8 @@
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -25205,10 +25053,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25239,10 +25085,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -25269,10 +25113,8 @@
       </c>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -25303,10 +25145,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25329,10 +25169,8 @@
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="inlineStr"/>
       <c r="G751" t="inlineStr"/>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25367,10 +25205,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -25401,10 +25237,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25435,10 +25269,8 @@
         </is>
       </c>
       <c r="G754" t="inlineStr"/>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25473,10 +25305,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25511,10 +25341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25545,10 +25373,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25583,10 +25409,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -25621,10 +25445,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25655,10 +25477,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -25689,10 +25509,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25723,10 +25541,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25757,10 +25573,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25795,10 +25609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25829,10 +25641,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25867,10 +25677,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25901,10 +25709,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25935,10 +25741,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25973,10 +25777,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26007,10 +25809,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -26041,10 +25841,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -26075,10 +25873,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26109,10 +25905,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -26147,10 +25941,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26185,10 +25977,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -26223,10 +26013,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26261,10 +26049,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26287,10 +26073,8 @@
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26325,10 +26109,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26363,10 +26145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26401,10 +26181,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26439,10 +26217,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26477,10 +26253,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26503,10 +26277,8 @@
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -26541,10 +26313,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -26579,10 +26349,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26617,10 +26385,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26647,10 +26413,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26677,10 +26441,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26711,10 +26473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26745,10 +26505,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26775,10 +26533,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26805,10 +26561,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26835,10 +26589,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26865,10 +26617,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26895,10 +26645,8 @@
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26933,10 +26681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26963,10 +26709,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27001,10 +26745,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -27039,10 +26781,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27077,10 +26817,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27115,10 +26853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27153,10 +26889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H803" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -27187,10 +26921,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27221,10 +26953,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27259,10 +26989,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27285,10 +27013,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27311,10 +27037,8 @@
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27341,10 +27065,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27371,10 +27093,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -27401,10 +27121,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27431,10 +27149,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27461,10 +27177,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27491,10 +27205,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27521,10 +27233,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27551,10 +27261,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27581,10 +27289,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27619,10 +27325,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27657,10 +27361,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27683,10 +27385,8 @@
       <c r="E820" t="inlineStr"/>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -27713,10 +27413,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27747,10 +27445,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27777,10 +27473,8 @@
       </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27803,10 +27497,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27829,10 +27521,8 @@
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27855,10 +27545,8 @@
       </c>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27885,10 +27573,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27915,10 +27601,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27945,10 +27629,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27971,10 +27653,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27993,10 +27673,8 @@
       <c r="E831" t="inlineStr"/>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28023,10 +27701,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28053,10 +27729,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28083,10 +27757,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -28123,10 +27795,8 @@
       <c r="E836" t="inlineStr"/>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -28157,10 +27827,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -28191,10 +27859,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28229,10 +27895,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28267,10 +27931,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -28305,10 +27967,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -28343,10 +28003,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28373,10 +28031,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28403,10 +28059,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28441,10 +28095,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28479,10 +28131,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28509,10 +28159,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28539,10 +28187,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28569,10 +28215,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28607,10 +28251,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28645,10 +28287,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28683,10 +28323,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28721,10 +28359,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28759,10 +28395,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28793,10 +28427,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -28831,10 +28463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28869,10 +28499,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28903,10 +28531,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28941,10 +28567,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28979,10 +28603,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -29013,10 +28635,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29047,10 +28667,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29085,10 +28703,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29123,10 +28739,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -29161,10 +28775,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29199,10 +28811,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29237,10 +28847,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -29275,10 +28883,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29313,10 +28919,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29339,10 +28943,8 @@
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29369,10 +28971,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29395,10 +28995,8 @@
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29425,10 +29023,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29459,10 +29055,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29489,10 +29083,8 @@
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29523,10 +29115,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29549,10 +29139,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -29583,10 +29171,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29621,10 +29207,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -29659,10 +29243,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -29693,10 +29275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29727,10 +29307,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29765,10 +29343,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29803,10 +29379,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29841,10 +29415,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -29875,10 +29447,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29909,10 +29479,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29943,10 +29511,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29977,10 +29543,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30007,10 +29571,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30037,10 +29599,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30067,10 +29627,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30097,10 +29655,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30127,10 +29683,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30161,10 +29715,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30195,10 +29747,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -30233,10 +29783,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30271,10 +29819,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -30309,10 +29855,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30339,10 +29883,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30369,10 +29911,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30399,10 +29939,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30429,10 +29967,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30459,10 +29995,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -30485,110 +30019,144 @@
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
           <t>3</t>
@@ -30598,29 +30166,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30632,33 +30204,33 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
@@ -30670,25 +30242,21 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
@@ -30700,65 +30268,57 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30768,363 +30328,327 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31136,29 +30660,33 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31170,29 +30698,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31204,29 +30732,29 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
@@ -31238,27 +30766,31 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -31268,107 +30800,83 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -31378,97 +30886,69 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
@@ -31480,31 +30960,27 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -31514,169 +30990,165 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr"/>
@@ -31690,139 +31162,131 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31834,71 +31298,63 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F947" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H947" t="inlineStr">
@@ -31910,31 +31366,27 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31944,31 +31396,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31978,31 +31422,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -32012,23 +31448,23 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
@@ -32042,27 +31478,31 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H952" t="inlineStr">
         <is>
           <t>3</t>
@@ -32070,23 +31510,23 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
@@ -32098,101 +31538,109 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B954" t="inlineStr"/>
-      <c r="C954" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr"/>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E956" t="inlineStr"/>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -32202,91 +31650,87 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr"/>
-      <c r="C958" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32294,77 +31738,73 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -32372,35 +31812,27 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A964" t="inlineStr"/>
       <c r="B964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H964" t="inlineStr">
@@ -32412,61 +31844,45 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr"/>
+      <c r="C965" t="inlineStr"/>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr"/>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H966" t="inlineStr">
         <is>
           <t>3</t>
@@ -32476,12 +31892,12 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32490,32 +31906,28 @@
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -32526,13 +31938,13 @@
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H968" t="inlineStr">
@@ -32544,31 +31956,27 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32578,25 +31986,21 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
@@ -32608,17 +32012,17 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
@@ -32634,139 +32038,159 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F972" t="inlineStr"/>
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32776,23 +32200,31 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
           <t>3</t>
@@ -32802,57 +32234,61 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32862,31 +32298,27 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32894,19 +32326,27 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32916,137 +32356,145 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
       <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
           <t>3</t>
@@ -33056,650 +32504,50 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr"/>
-      <c r="C987" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
+      <c r="A988" t="inlineStr"/>
       <c r="B988" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
+      <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G988" t="inlineStr"/>
       <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr"/>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>40-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYDEC</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr"/>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1009"/>
+  <dimension ref="A1:H994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22723,10 +22723,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -22757,10 +22755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22795,10 +22791,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H671" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -22833,10 +22827,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22871,10 +22863,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22897,10 +22887,8 @@
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -22935,10 +22923,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -22969,10 +22955,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -23003,10 +22987,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23033,10 +23015,8 @@
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23063,10 +23043,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23093,10 +23071,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23131,10 +23107,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -23165,10 +23139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="683">
@@ -23199,10 +23171,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23233,10 +23203,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23263,10 +23231,8 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23293,10 +23259,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23323,10 +23287,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23357,10 +23319,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23387,10 +23347,8 @@
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23417,10 +23375,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23443,10 +23399,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23473,10 +23427,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23503,10 +23455,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23533,10 +23483,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23567,10 +23515,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23597,10 +23543,8 @@
         </is>
       </c>
       <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23631,10 +23575,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23665,10 +23607,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23691,10 +23631,8 @@
       </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23713,10 +23651,8 @@
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23761,10 +23697,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -23791,10 +23725,8 @@
       </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -23821,10 +23753,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23859,10 +23789,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="706">
@@ -23897,10 +23825,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23931,10 +23857,8 @@
         </is>
       </c>
       <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23965,10 +23889,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23995,10 +23917,8 @@
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24033,10 +23953,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24067,10 +23985,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24097,10 +24013,8 @@
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24127,10 +24041,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24161,10 +24073,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24195,10 +24105,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24233,10 +24141,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24267,10 +24173,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24293,10 +24197,8 @@
       <c r="E718" t="inlineStr"/>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24327,10 +24229,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24353,10 +24253,8 @@
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24391,10 +24289,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="722">
@@ -24425,10 +24321,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24455,10 +24349,8 @@
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24485,10 +24377,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24515,10 +24405,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24545,10 +24433,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24571,10 +24457,8 @@
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24609,10 +24493,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24643,10 +24525,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24681,10 +24561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H730" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -24719,10 +24597,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -24757,10 +24633,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24791,10 +24665,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24825,10 +24697,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24859,10 +24729,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24897,10 +24765,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24927,10 +24793,8 @@
       </c>
       <c r="F737" t="inlineStr"/>
       <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24953,10 +24817,8 @@
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -24991,10 +24853,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -25021,10 +24881,8 @@
       </c>
       <c r="F740" t="inlineStr"/>
       <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25047,10 +24905,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25095,10 +24951,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -25129,10 +24983,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25155,10 +25007,8 @@
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr"/>
       <c r="G745" t="inlineStr"/>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -25189,10 +25039,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -25223,10 +25071,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25253,10 +25099,8 @@
       </c>
       <c r="F748" t="inlineStr"/>
       <c r="G748" t="inlineStr"/>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -25287,10 +25131,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -25313,10 +25155,8 @@
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="inlineStr"/>
       <c r="G750" t="inlineStr"/>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25351,10 +25191,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="752">
@@ -25385,10 +25223,8 @@
         </is>
       </c>
       <c r="G752" t="inlineStr"/>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25419,10 +25255,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25457,10 +25291,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25495,10 +25327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25529,10 +25359,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25567,10 +25395,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H757" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -25605,10 +25431,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -25639,10 +25463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25673,10 +25495,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25707,10 +25527,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25741,10 +25559,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25779,10 +25595,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25813,10 +25627,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25851,10 +25663,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25885,10 +25695,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25919,10 +25727,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25957,10 +25763,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25991,10 +25795,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26025,10 +25827,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -26059,10 +25859,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -26093,10 +25891,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26131,10 +25927,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -26169,10 +25963,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26207,10 +25999,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -26245,10 +26035,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26271,10 +26059,8 @@
       <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr"/>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26309,10 +26095,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26347,10 +26131,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26385,10 +26167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26423,10 +26203,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26461,10 +26239,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26487,10 +26263,8 @@
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -26525,10 +26299,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -26563,10 +26335,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -26601,10 +26371,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26631,10 +26399,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26661,10 +26427,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26695,10 +26459,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26729,10 +26491,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26759,10 +26519,8 @@
       </c>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26789,10 +26547,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26819,10 +26575,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26849,10 +26603,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26879,10 +26631,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26917,10 +26667,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26947,10 +26695,8 @@
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26985,10 +26731,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27023,10 +26767,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H799" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -27061,10 +26803,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27099,10 +26839,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27137,10 +26875,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27171,10 +26907,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="804">
@@ -27205,10 +26939,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27243,10 +26975,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27269,10 +26999,8 @@
       <c r="E806" t="inlineStr"/>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27295,10 +27023,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27325,10 +27051,8 @@
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27355,10 +27079,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27385,10 +27107,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27415,10 +27135,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27445,10 +27163,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27475,10 +27191,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27505,10 +27219,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27535,10 +27247,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27565,10 +27275,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27603,10 +27311,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -27641,10 +27347,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27667,10 +27371,8 @@
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27697,10 +27399,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27731,10 +27431,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -27761,10 +27459,8 @@
       </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27787,10 +27483,8 @@
       <c r="E823" t="inlineStr"/>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27813,10 +27507,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27839,10 +27531,8 @@
       </c>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27869,10 +27559,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27899,10 +27587,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27929,10 +27615,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27955,10 +27639,8 @@
       </c>
       <c r="F829" t="inlineStr"/>
       <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27977,10 +27659,8 @@
       <c r="E830" t="inlineStr"/>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -28007,10 +27687,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28037,10 +27715,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28067,10 +27743,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28107,10 +27781,8 @@
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -28141,10 +27813,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -28175,10 +27845,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -28213,10 +27881,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28251,10 +27917,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -28289,10 +27953,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -28327,10 +27989,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -28357,10 +28017,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28387,10 +28045,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28425,10 +28081,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28463,10 +28117,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28493,10 +28145,8 @@
       </c>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28523,10 +28173,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28553,10 +28201,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28591,10 +28237,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -28629,10 +28273,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28667,10 +28309,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28705,10 +28345,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28743,10 +28381,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -28777,10 +28413,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28815,10 +28449,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28853,10 +28485,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28887,10 +28517,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28925,10 +28553,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28963,10 +28589,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28997,10 +28621,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -29031,10 +28653,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29069,10 +28689,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29107,10 +28725,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29145,10 +28761,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="865">
@@ -29183,10 +28797,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29221,10 +28833,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29259,10 +28869,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -29297,10 +28905,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29323,10 +28929,8 @@
       <c r="E869" t="inlineStr"/>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29353,10 +28957,8 @@
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29379,10 +28981,8 @@
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29409,10 +29009,8 @@
       </c>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29443,10 +29041,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -29473,10 +29069,8 @@
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29507,10 +29101,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29533,10 +29125,8 @@
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="877">
@@ -29567,10 +29157,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29605,10 +29193,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -29643,10 +29229,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -29677,10 +29261,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="881">
@@ -29711,10 +29293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29749,10 +29329,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29787,10 +29365,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29825,10 +29401,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29859,10 +29433,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29893,10 +29465,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29927,10 +29497,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29961,10 +29529,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29991,10 +29557,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30021,10 +29585,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30051,10 +29613,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30081,10 +29641,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30111,10 +29669,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30145,10 +29701,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30179,10 +29733,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30217,10 +29769,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="897">
@@ -30255,10 +29805,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30293,10 +29841,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -30323,10 +29869,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30353,10 +29897,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30383,10 +29925,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30413,10 +29953,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30443,10 +29981,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30469,110 +30005,144 @@
       <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr"/>
-      <c r="C905" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr"/>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
           <t>3</t>
@@ -30582,29 +30152,33 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H909" t="inlineStr">
@@ -30616,33 +30190,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30654,25 +30228,21 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
@@ -30684,65 +30254,57 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30752,363 +30314,327 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F914" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
@@ -31120,29 +30646,33 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31154,29 +30684,29 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31188,29 +30718,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31222,27 +30752,31 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
           <t>3</t>
@@ -31252,107 +30786,83 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A930" t="inlineStr"/>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
           <t>3</t>
@@ -31362,97 +30872,69 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr"/>
       <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
@@ -31464,31 +30946,27 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31498,169 +30976,165 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr"/>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
@@ -31674,139 +31148,131 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F942" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
@@ -31818,71 +31284,63 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
@@ -31894,31 +31352,27 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31928,31 +31382,23 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31962,31 +31408,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31996,23 +31434,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
@@ -32026,27 +31464,31 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -32054,23 +31496,23 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
@@ -32082,101 +31524,109 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr"/>
-      <c r="C953" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr"/>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -32186,91 +31636,87 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B957" t="inlineStr"/>
-      <c r="C957" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr"/>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A958" t="inlineStr"/>
       <c r="B958" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32278,77 +31724,73 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E961" t="inlineStr"/>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
@@ -32356,35 +31798,27 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F963" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F963" t="inlineStr"/>
       <c r="G963" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H963" t="inlineStr">
@@ -32396,61 +31830,45 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H965" t="inlineStr">
         <is>
           <t>3</t>
@@ -32460,12 +31878,12 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -32474,32 +31892,28 @@
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32510,13 +31924,13 @@
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
@@ -32528,31 +31942,27 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -32562,25 +31972,21 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E969" t="inlineStr"/>
       <c r="F969" t="inlineStr"/>
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
@@ -32592,17 +31998,17 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
@@ -32618,139 +32024,159 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
       <c r="E972" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
       <c r="G973" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr"/>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32760,23 +32186,31 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32786,57 +32220,61 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
       <c r="E978" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
           <t>3</t>
@@ -32846,31 +32284,27 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32878,19 +32312,27 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr"/>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F980" t="inlineStr"/>
       <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
@@ -32900,137 +32342,145 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
       <c r="E981" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="983">
-      <c r="A983" t="inlineStr"/>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr"/>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
       <c r="E985" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -33040,139 +32490,163 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr"/>
-      <c r="C986" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
       <c r="E987" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
       <c r="E989" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H990" t="inlineStr">
         <is>
           <t>3</t>
@@ -33182,23 +32656,31 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33208,23 +32690,27 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr"/>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
           <t>3</t>
@@ -33234,516 +32720,46 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
       <c r="H993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A994" t="inlineStr"/>
       <c r="B994" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr"/>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H994"/>
+  <dimension ref="A1:H972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30033,10 +30033,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30067,10 +30065,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -30105,10 +30101,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -30143,10 +30137,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -30181,10 +30173,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -30219,10 +30209,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -30245,10 +30233,8 @@
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -30279,10 +30265,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -30305,10 +30289,8 @@
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -30335,10 +30317,8 @@
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -30365,10 +30345,8 @@
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -30395,10 +30373,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30425,10 +30401,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30455,10 +30429,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30493,10 +30465,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H919" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -30531,10 +30501,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H920" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -30565,10 +30533,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="922">
@@ -30599,10 +30565,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H922" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -30637,10 +30601,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -30675,10 +30637,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30709,10 +30669,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30743,10 +30701,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30777,10 +30733,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30807,10 +30761,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30837,10 +30789,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30863,10 +30813,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30907,10 +30855,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="933">
@@ -30937,10 +30883,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30967,100 +30911,94 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr"/>
-      <c r="C935" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A937" t="inlineStr"/>
       <c r="B937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31068,77 +31006,73 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A939" t="inlineStr"/>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A940" t="inlineStr"/>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31146,35 +31080,27 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A941" t="inlineStr"/>
       <c r="B941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
@@ -31186,61 +31112,45 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
           <t>3</t>
@@ -31250,12 +31160,12 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -31264,32 +31174,28 @@
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -31300,13 +31206,13 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31318,31 +31224,27 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31352,25 +31254,21 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
@@ -31382,17 +31280,17 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -31408,139 +31306,159 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr"/>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31550,23 +31468,31 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
           <t>3</t>
@@ -31576,57 +31502,61 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31636,31 +31566,27 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31668,19 +31594,27 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31690,137 +31624,145 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr"/>
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H961" t="inlineStr">
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31830,139 +31772,163 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31972,23 +31938,31 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -31998,23 +31972,27 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
           <t>3</t>
@@ -32024,742 +32002,46 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A972" t="inlineStr"/>
       <c r="B972" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E972" t="inlineStr"/>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C974" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr"/>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B975" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B977" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr"/>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1017"/>
+  <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22691,10 +22691,8 @@
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22739,10 +22737,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22773,10 +22769,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22811,10 +22805,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22849,10 +22841,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22887,10 +22877,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H674" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -22913,10 +22901,8 @@
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -22951,10 +22937,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -22985,10 +22969,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23019,10 +23001,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23049,10 +23029,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23079,10 +23057,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23109,10 +23085,8 @@
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -23147,10 +23121,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H682" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -23181,10 +23153,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23215,10 +23185,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23249,10 +23217,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23279,10 +23245,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23309,10 +23273,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23339,10 +23301,8 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23373,10 +23333,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23403,10 +23361,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23433,10 +23389,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23459,10 +23413,8 @@
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23489,10 +23441,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23519,10 +23469,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23549,10 +23497,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23583,10 +23529,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23613,10 +23557,8 @@
         </is>
       </c>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23647,10 +23589,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23681,10 +23621,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23707,10 +23645,8 @@
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23729,10 +23665,8 @@
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -23777,10 +23711,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -23807,10 +23739,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23837,10 +23767,8 @@
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H705" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -23875,10 +23803,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -23913,10 +23839,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23947,10 +23871,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23981,10 +23903,8 @@
         </is>
       </c>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24011,10 +23931,8 @@
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24049,10 +23967,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24083,10 +23999,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24113,10 +24027,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24143,10 +24055,8 @@
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24177,10 +24087,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24211,10 +24119,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24249,10 +24155,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24283,10 +24187,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24309,10 +24211,8 @@
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
       <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24343,10 +24243,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24369,10 +24267,8 @@
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -24407,10 +24303,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -24441,10 +24335,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24471,10 +24363,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24501,10 +24391,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24531,10 +24419,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24561,10 +24447,8 @@
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24587,10 +24471,8 @@
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr"/>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24625,10 +24507,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24659,10 +24539,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -24697,10 +24575,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H731" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -24735,10 +24611,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -24773,10 +24647,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24807,10 +24679,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24841,10 +24711,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24875,10 +24743,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24913,10 +24779,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24943,10 +24807,8 @@
       </c>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -24969,10 +24831,8 @@
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -25007,10 +24867,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25037,10 +24895,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25063,10 +24919,8 @@
       </c>
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr"/>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -25111,10 +24965,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25145,10 +24997,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -25171,10 +25021,8 @@
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -25205,10 +25053,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25239,10 +25085,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -25269,10 +25113,8 @@
       </c>
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -25303,10 +25145,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25329,10 +25169,8 @@
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="inlineStr"/>
       <c r="G751" t="inlineStr"/>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -25367,10 +25205,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -25401,10 +25237,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25435,10 +25269,8 @@
         </is>
       </c>
       <c r="G754" t="inlineStr"/>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25473,10 +25305,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -25511,10 +25341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25545,10 +25373,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -25583,10 +25409,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -25621,10 +25445,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25655,10 +25477,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -25689,10 +25509,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25723,10 +25541,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25757,10 +25573,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25795,10 +25609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25829,10 +25641,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25867,10 +25677,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25901,10 +25709,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25935,10 +25741,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25973,10 +25777,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26007,10 +25809,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -26041,10 +25841,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -26075,10 +25873,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26109,10 +25905,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -26147,10 +25941,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26185,10 +25977,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -26223,10 +26013,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26261,10 +26049,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26287,10 +26073,8 @@
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26325,10 +26109,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26363,10 +26145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26401,10 +26181,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26439,10 +26217,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26477,10 +26253,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -26503,10 +26277,8 @@
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -26541,10 +26313,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -26579,10 +26349,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -26617,10 +26385,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26647,10 +26413,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26677,10 +26441,8 @@
       </c>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26711,10 +26473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26745,10 +26505,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -26775,10 +26533,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -26805,10 +26561,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26835,10 +26589,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26865,10 +26617,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26895,10 +26645,8 @@
       </c>
       <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26933,10 +26681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26963,10 +26709,8 @@
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27001,10 +26745,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -27039,10 +26781,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27077,10 +26817,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27115,10 +26853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27153,10 +26889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H803" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -27187,10 +26921,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27221,10 +26953,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27259,10 +26989,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27285,10 +27013,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27311,10 +27037,8 @@
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27341,10 +27065,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27371,10 +27093,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -27401,10 +27121,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27431,10 +27149,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27461,10 +27177,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27491,10 +27205,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27521,10 +27233,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27551,10 +27261,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27581,10 +27289,8 @@
       </c>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -27619,10 +27325,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27657,10 +27361,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27683,10 +27385,8 @@
       <c r="E820" t="inlineStr"/>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -27713,10 +27413,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27747,10 +27445,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="823">
@@ -27777,10 +27473,8 @@
       </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27803,10 +27497,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -27829,10 +27521,8 @@
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27855,10 +27545,8 @@
       </c>
       <c r="F826" t="inlineStr"/>
       <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27885,10 +27573,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27915,10 +27601,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27945,10 +27629,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27971,10 +27653,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27993,10 +27673,8 @@
       <c r="E831" t="inlineStr"/>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28023,10 +27701,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28053,10 +27729,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28083,10 +27757,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -28123,10 +27795,8 @@
       <c r="E836" t="inlineStr"/>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -28157,10 +27827,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="838">
@@ -28191,10 +27859,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28229,10 +27895,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -28267,10 +27931,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -28305,10 +27967,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H841" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -28343,10 +28003,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28373,10 +28031,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="844">
@@ -28403,10 +28059,8 @@
       </c>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28441,10 +28095,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -28479,10 +28131,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -28509,10 +28159,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28539,10 +28187,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28569,10 +28215,8 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
@@ -28607,10 +28251,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28645,10 +28287,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28683,10 +28323,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28721,10 +28359,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28759,10 +28395,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28793,10 +28427,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -28831,10 +28463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28869,10 +28499,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28903,10 +28531,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28941,10 +28567,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28979,10 +28603,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -29013,10 +28635,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29047,10 +28667,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29085,10 +28703,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29123,10 +28739,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -29161,10 +28775,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29199,10 +28811,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29237,10 +28847,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -29275,10 +28883,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29313,10 +28919,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29339,10 +28943,8 @@
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29369,10 +28971,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29395,10 +28995,8 @@
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29425,10 +29023,8 @@
       </c>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -29459,10 +29055,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -29489,10 +29083,8 @@
       </c>
       <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29523,10 +29115,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -29549,10 +29139,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -29583,10 +29171,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -29621,10 +29207,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -29659,10 +29243,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -29693,10 +29275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29727,10 +29307,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29765,10 +29343,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29803,10 +29379,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29841,10 +29415,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -29875,10 +29447,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29909,10 +29479,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29943,10 +29511,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29977,10 +29543,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30007,10 +29571,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30037,10 +29599,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30067,10 +29627,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30097,10 +29655,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30127,10 +29683,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30161,10 +29715,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30195,10 +29747,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -30233,10 +29783,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30271,10 +29819,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -30309,10 +29855,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30339,10 +29883,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30369,10 +29911,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30399,10 +29939,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30429,10 +29967,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30459,10 +29995,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -30485,110 +30019,144 @@
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H909" t="inlineStr">
         <is>
           <t>3</t>
@@ -30598,29 +30166,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30632,33 +30204,33 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
@@ -30670,25 +30242,21 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
@@ -30700,65 +30268,57 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
           <t>3</t>
@@ -30768,363 +30328,327 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G919" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
       <c r="H919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31136,29 +30660,33 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31170,29 +30698,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31204,29 +30732,29 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
@@ -31238,27 +30766,31 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H928" t="inlineStr">
         <is>
           <t>3</t>
@@ -31268,107 +30800,83 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
           <t>3</t>
@@ -31378,97 +30886,69 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
@@ -31480,31 +30960,27 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
           <t>3</t>
@@ -31514,169 +30990,165 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B936" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C936" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr"/>
@@ -31690,139 +31162,131 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31834,71 +31298,63 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F947" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H947" t="inlineStr">
@@ -31910,31 +31366,27 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
       <c r="E948" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31944,31 +31396,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31978,31 +31422,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
           <t>3</t>
@@ -32012,23 +31448,23 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
@@ -32042,27 +31478,31 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H952" t="inlineStr">
         <is>
           <t>3</t>
@@ -32070,23 +31510,23 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
@@ -32098,101 +31538,109 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B954" t="inlineStr"/>
-      <c r="C954" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D954" t="inlineStr"/>
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr"/>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E956" t="inlineStr"/>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -32202,91 +31650,87 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr"/>
-      <c r="C958" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32294,77 +31738,73 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
       <c r="E961" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -32372,35 +31812,27 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A964" t="inlineStr"/>
       <c r="B964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H964" t="inlineStr">
@@ -32412,61 +31844,45 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr"/>
+      <c r="C965" t="inlineStr"/>
       <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr"/>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H966" t="inlineStr">
         <is>
           <t>3</t>
@@ -32476,12 +31892,12 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32490,32 +31906,28 @@
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -32526,13 +31938,13 @@
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H968" t="inlineStr">
@@ -32544,31 +31956,27 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
       <c r="E969" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -32578,25 +31986,21 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
@@ -32608,17 +32012,17 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
@@ -32634,139 +32038,159 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F972" t="inlineStr"/>
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
       <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32776,23 +32200,31 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
           <t>3</t>
@@ -32802,57 +32234,61 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32862,31 +32298,27 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
       <c r="E980" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
         <is>
           <t>3</t>
@@ -32894,19 +32326,27 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr"/>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
@@ -32916,137 +32356,145 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F983" t="inlineStr"/>
       <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
       <c r="E986" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
           <t>3</t>
@@ -33056,139 +32504,163 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr"/>
-      <c r="C987" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr"/>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
       <c r="E988" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
       <c r="E991" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33198,23 +32670,31 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
           <t>3</t>
@@ -33224,23 +32704,27 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H993" t="inlineStr">
         <is>
           <t>3</t>
@@ -33250,742 +32734,124 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G995" t="inlineStr"/>
       <c r="H995" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A998" t="inlineStr"/>
       <c r="B998" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G998" t="inlineStr"/>
       <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr"/>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr"/>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1019"/>
+  <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22723,10 +22723,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -22757,10 +22755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -22795,10 +22791,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H671" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -22833,10 +22827,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H672" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -22871,10 +22863,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H673" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22897,10 +22887,8 @@
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -22935,10 +22923,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -22969,10 +22955,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
@@ -23003,10 +22987,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="678">
@@ -23033,10 +23015,8 @@
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="679">
@@ -23063,10 +23043,8 @@
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -23093,10 +23071,8 @@
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -23131,10 +23107,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -23165,10 +23139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="683">
@@ -23199,10 +23171,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="684">
@@ -23233,10 +23203,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -23263,10 +23231,8 @@
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="686">
@@ -23293,10 +23259,8 @@
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -23323,10 +23287,8 @@
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -23357,10 +23319,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="689">
@@ -23387,10 +23347,8 @@
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -23417,10 +23375,8 @@
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="691">
@@ -23443,10 +23399,8 @@
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="692">
@@ -23473,10 +23427,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -23503,10 +23455,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -23533,10 +23483,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -23567,10 +23515,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -23597,10 +23543,8 @@
         </is>
       </c>
       <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -23631,10 +23575,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -23665,10 +23607,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -23691,10 +23631,8 @@
       </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -23713,10 +23651,8 @@
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -23761,10 +23697,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -23791,10 +23725,8 @@
       </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -23821,10 +23753,8 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -23859,10 +23789,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="706">
@@ -23897,10 +23825,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -23931,10 +23857,8 @@
         </is>
       </c>
       <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -23965,10 +23889,8 @@
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -23995,10 +23917,8 @@
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -24033,10 +23953,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -24067,10 +23985,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -24097,10 +24013,8 @@
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -24127,10 +24041,8 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -24161,10 +24073,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -24195,10 +24105,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -24233,10 +24141,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -24267,10 +24173,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -24293,10 +24197,8 @@
       <c r="E718" t="inlineStr"/>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -24327,10 +24229,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -24353,10 +24253,8 @@
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="721">
@@ -24391,10 +24289,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="722">
@@ -24425,10 +24321,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -24455,10 +24349,8 @@
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -24485,10 +24377,8 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -24515,10 +24405,8 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -24545,10 +24433,8 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -24571,10 +24457,8 @@
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -24609,10 +24493,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -24643,10 +24525,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -24681,10 +24561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H730" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -24719,10 +24597,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -24757,10 +24633,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -24791,10 +24665,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -24825,10 +24697,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -24859,10 +24729,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -24897,10 +24765,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -24927,10 +24793,8 @@
       </c>
       <c r="F737" t="inlineStr"/>
       <c r="G737" t="inlineStr"/>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -24953,10 +24817,8 @@
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr"/>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -24991,10 +24853,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -25021,10 +24881,8 @@
       </c>
       <c r="F740" t="inlineStr"/>
       <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -25047,10 +24905,8 @@
       </c>
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -25095,10 +24951,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -25129,10 +24983,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -25155,10 +25007,8 @@
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr"/>
       <c r="G745" t="inlineStr"/>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -25189,10 +25039,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -25223,10 +25071,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -25253,10 +25099,8 @@
       </c>
       <c r="F748" t="inlineStr"/>
       <c r="G748" t="inlineStr"/>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -25287,10 +25131,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -25313,10 +25155,8 @@
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="inlineStr"/>
       <c r="G750" t="inlineStr"/>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -25351,10 +25191,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H751" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="752">
@@ -25385,10 +25223,8 @@
         </is>
       </c>
       <c r="G752" t="inlineStr"/>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="753">
@@ -25419,10 +25255,8 @@
         </is>
       </c>
       <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -25457,10 +25291,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -25495,10 +25327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -25529,10 +25359,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -25567,10 +25395,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H757" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -25605,10 +25431,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -25639,10 +25463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -25673,10 +25495,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -25707,10 +25527,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -25741,10 +25559,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -25779,10 +25595,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -25813,10 +25627,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -25851,10 +25663,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -25885,10 +25695,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -25919,10 +25727,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -25957,10 +25763,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -25991,10 +25795,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -26025,10 +25827,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -26059,10 +25859,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -26093,10 +25891,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -26131,10 +25927,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -26169,10 +25963,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="775">
@@ -26207,10 +25999,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -26245,10 +26035,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="777">
@@ -26271,10 +26059,8 @@
       <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr"/>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -26309,10 +26095,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -26347,10 +26131,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="780">
@@ -26385,10 +26167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="781">
@@ -26423,10 +26203,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -26461,10 +26239,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -26487,10 +26263,8 @@
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -26525,10 +26299,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -26563,10 +26335,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -26601,10 +26371,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -26631,10 +26399,8 @@
       </c>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -26661,10 +26427,8 @@
       </c>
       <c r="F788" t="inlineStr"/>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="789">
@@ -26695,10 +26459,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -26729,10 +26491,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -26759,10 +26519,8 @@
       </c>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -26789,10 +26547,8 @@
       </c>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="793">
@@ -26819,10 +26575,8 @@
       </c>
       <c r="F793" t="inlineStr"/>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -26849,10 +26603,8 @@
       </c>
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="795">
@@ -26879,10 +26631,8 @@
       </c>
       <c r="F795" t="inlineStr"/>
       <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -26917,10 +26667,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -26947,10 +26695,8 @@
       </c>
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="798">
@@ -26985,10 +26731,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -27023,10 +26767,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H799" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -27061,10 +26803,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -27099,10 +26839,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -27137,10 +26875,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -27171,10 +26907,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="804">
@@ -27205,10 +26939,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="805">
@@ -27243,10 +26975,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -27269,10 +26999,8 @@
       <c r="E806" t="inlineStr"/>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -27295,10 +27023,8 @@
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -27325,10 +27051,8 @@
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -27355,10 +27079,8 @@
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -27385,10 +27107,8 @@
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="811">
@@ -27415,10 +27135,8 @@
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="812">
@@ -27445,10 +27163,8 @@
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="813">
@@ -27475,10 +27191,8 @@
       </c>
       <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -27505,10 +27219,8 @@
       </c>
       <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -27535,10 +27247,8 @@
       </c>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -27565,10 +27275,8 @@
       </c>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -27603,10 +27311,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -27641,10 +27347,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -27667,10 +27371,8 @@
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -27697,10 +27399,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27731,10 +27431,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -27761,10 +27459,8 @@
       </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27787,10 +27483,8 @@
       <c r="E823" t="inlineStr"/>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -27813,10 +27507,8 @@
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27839,10 +27531,8 @@
       </c>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -27869,10 +27559,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -27899,10 +27587,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27929,10 +27615,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27955,10 +27639,8 @@
       </c>
       <c r="F829" t="inlineStr"/>
       <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27977,10 +27659,8 @@
       <c r="E830" t="inlineStr"/>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -28007,10 +27687,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -28037,10 +27715,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -28067,10 +27743,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="834">
@@ -28107,10 +27781,8 @@
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -28141,10 +27813,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -28175,10 +27845,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -28213,10 +27881,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -28251,10 +27917,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -28289,10 +27953,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H840" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -28327,10 +27989,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -28357,10 +28017,8 @@
       </c>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -28387,10 +28045,8 @@
       </c>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="844">
@@ -28425,10 +28081,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="845">
@@ -28463,10 +28117,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -28493,10 +28145,8 @@
       </c>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="847">
@@ -28523,10 +28173,8 @@
       </c>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -28553,10 +28201,8 @@
       </c>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28591,10 +28237,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -28629,10 +28273,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -28667,10 +28309,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="852">
@@ -28705,10 +28345,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="853">
@@ -28743,10 +28381,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -28777,10 +28413,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -28815,10 +28449,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="856">
@@ -28853,10 +28485,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -28887,10 +28517,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -28925,10 +28553,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -28963,10 +28589,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28997,10 +28621,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -29031,10 +28653,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -29069,10 +28689,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -29107,10 +28725,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="864">
@@ -29145,10 +28761,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="865">
@@ -29183,10 +28797,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -29221,10 +28833,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -29259,10 +28869,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="868">
@@ -29297,10 +28905,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -29323,10 +28929,8 @@
       <c r="E869" t="inlineStr"/>
       <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -29353,10 +28957,8 @@
       </c>
       <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -29379,10 +28981,8 @@
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -29409,10 +29009,8 @@
       </c>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -29443,10 +29041,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -29473,10 +29069,8 @@
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -29507,10 +29101,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -29533,10 +29125,8 @@
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="877">
@@ -29567,10 +29157,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -29605,10 +29193,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -29643,10 +29229,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -29677,10 +29261,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="881">
@@ -29711,10 +29293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -29749,10 +29329,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -29787,10 +29365,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -29825,10 +29401,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -29859,10 +29433,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29893,10 +29465,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29927,10 +29497,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29961,10 +29529,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29991,10 +29557,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -30021,10 +29585,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -30051,10 +29613,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -30081,10 +29641,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -30111,10 +29669,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -30145,10 +29701,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -30179,10 +29733,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -30217,10 +29769,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="897">
@@ -30255,10 +29805,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -30293,10 +29841,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -30323,10 +29869,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -30353,10 +29897,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -30383,10 +29925,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -30413,10 +29953,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -30443,10 +29981,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -30469,110 +30005,144 @@
       <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr"/>
-      <c r="C905" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr"/>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H908" t="inlineStr">
         <is>
           <t>3</t>
@@ -30582,29 +30152,33 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H909" t="inlineStr">
@@ -30616,33 +30190,33 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
@@ -30654,25 +30228,21 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
@@ -30684,65 +30254,57 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>€2900.0M</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
           <t>3</t>
@@ -30752,363 +30314,327 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr">
         <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F914" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F916" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D919" t="inlineStr"/>
       <c r="E919" t="inlineStr">
         <is>
-          <t>75.1%</t>
-        </is>
-      </c>
-      <c r="F919" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>75.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D920" t="inlineStr"/>
       <c r="E920" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr">
         <is>
-          <t>0.2402%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F922" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
@@ -31120,29 +30646,33 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -31154,29 +30684,29 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D925" t="inlineStr"/>
       <c r="E925" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -31188,29 +30718,29 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -31222,27 +30752,31 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H927" t="inlineStr">
         <is>
           <t>3</t>
@@ -31252,107 +30786,83 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A930" t="inlineStr"/>
       <c r="B930" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
         <is>
           <t>3</t>
@@ -31362,97 +30872,69 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr"/>
       <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F931" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F932" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
@@ -31464,31 +30946,27 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
           <t>3</t>
@@ -31498,169 +30976,165 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr"/>
       <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
@@ -31674,139 +31148,131 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F942" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
       <c r="E944" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
@@ -31818,71 +31284,63 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F945" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
@@ -31894,31 +31352,27 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
       <c r="E947" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
           <t>3</t>
@@ -31928,31 +31382,23 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E948" t="inlineStr"/>
       <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
           <t>3</t>
@@ -31962,31 +31408,23 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
           <t>3</t>
@@ -31996,23 +31434,23 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
@@ -32026,27 +31464,31 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H951" t="inlineStr">
         <is>
           <t>3</t>
@@ -32054,23 +31496,23 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
@@ -32082,101 +31524,109 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr"/>
-      <c r="C953" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr"/>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -32186,91 +31636,87 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B957" t="inlineStr"/>
-      <c r="C957" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr"/>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A958" t="inlineStr"/>
       <c r="B958" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
           <t>CN</t>
@@ -32278,77 +31724,73 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E961" t="inlineStr"/>
       <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
@@ -32356,35 +31798,27 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F963" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F963" t="inlineStr"/>
       <c r="G963" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H963" t="inlineStr">
@@ -32396,61 +31830,45 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H965" t="inlineStr">
         <is>
           <t>3</t>
@@ -32460,12 +31878,12 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -32474,32 +31892,28 @@
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E966" t="inlineStr"/>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -32510,13 +31924,13 @@
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
@@ -32528,31 +31942,27 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -32562,25 +31972,21 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E969" t="inlineStr"/>
       <c r="F969" t="inlineStr"/>
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
@@ -32592,17 +31998,17 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
@@ -32618,139 +32024,159 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr"/>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
       <c r="E972" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F973" t="inlineStr"/>
       <c r="G973" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr"/>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr"/>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H975" t="inlineStr">
         <is>
           <t>3</t>
@@ -32760,23 +32186,31 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr"/>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H976" t="inlineStr">
         <is>
           <t>3</t>
@@ -32786,57 +32220,61 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
       <c r="E978" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
           <t>3</t>
@@ -32846,31 +32284,27 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D979" t="inlineStr"/>
       <c r="E979" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G979" t="inlineStr"/>
       <c r="H979" t="inlineStr">
         <is>
           <t>3</t>
@@ -32878,19 +32312,27 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr"/>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F980" t="inlineStr"/>
       <c r="G980" t="inlineStr"/>
       <c r="H980" t="inlineStr">
@@ -32900,137 +32342,145 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D981" t="inlineStr"/>
       <c r="E981" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F981" t="inlineStr"/>
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D982" t="inlineStr"/>
       <c r="E982" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="983">
-      <c r="A983" t="inlineStr"/>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr"/>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="984">
-      <c r="A984" t="inlineStr"/>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D985" t="inlineStr"/>
       <c r="E985" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
           <t>3</t>
@@ -33040,139 +32490,163 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr"/>
-      <c r="C986" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr"/>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D987" t="inlineStr"/>
       <c r="E987" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D989" t="inlineStr"/>
       <c r="E989" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H990" t="inlineStr">
         <is>
           <t>3</t>
@@ -33182,23 +32656,31 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr"/>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H991" t="inlineStr">
         <is>
           <t>3</t>
@@ -33208,23 +32690,27 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr"/>
       <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H992" t="inlineStr">
         <is>
           <t>3</t>
@@ -33234,820 +32720,124 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
       <c r="H993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G994" t="inlineStr"/>
       <c r="H994" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E995" t="inlineStr"/>
       <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G995" t="inlineStr"/>
       <c r="H995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E996" t="inlineStr"/>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A997" t="inlineStr"/>
       <c r="B997" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E997" t="inlineStr"/>
       <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr"/>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr"/>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr"/>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr"/>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1002" t="inlineStr"/>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr"/>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr"/>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr"/>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr"/>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr"/>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1011" t="inlineStr"/>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1013" t="inlineStr"/>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr"/>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr"/>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1016" t="inlineStr"/>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr"/>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H997"/>
+  <dimension ref="A1:H975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30033,10 +30033,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -30067,10 +30065,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -30105,10 +30101,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -30143,10 +30137,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -30181,10 +30173,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -30219,10 +30209,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -30245,10 +30233,8 @@
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -30279,10 +30265,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -30305,10 +30289,8 @@
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -30335,10 +30317,8 @@
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -30365,10 +30345,8 @@
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -30395,10 +30373,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30425,10 +30401,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30455,10 +30429,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30493,10 +30465,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H919" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -30531,10 +30501,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H920" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -30565,10 +30533,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="922">
@@ -30599,10 +30565,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H922" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -30637,10 +30601,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -30675,10 +30637,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30709,10 +30669,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30743,10 +30701,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30777,10 +30733,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30807,10 +30761,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30837,10 +30789,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30863,10 +30813,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30907,10 +30855,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="933">
@@ -30937,10 +30883,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30967,100 +30911,94 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr"/>
-      <c r="C935" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr"/>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D936" t="inlineStr"/>
-      <c r="E936" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A937" t="inlineStr"/>
       <c r="B937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
           <t>CN</t>
@@ -31068,77 +31006,73 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
+      <c r="A939" t="inlineStr"/>
       <c r="B939" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A940" t="inlineStr"/>
       <c r="B940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H940" t="inlineStr">
         <is>
           <t>3</t>
@@ -31146,35 +31080,27 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A941" t="inlineStr"/>
       <c r="B941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D941" t="inlineStr"/>
       <c r="E941" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F941" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
@@ -31186,61 +31112,45 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C942" t="inlineStr">
-        <is>
-          <t>Industrial Production YoY FinalNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
       <c r="E943" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H943" t="inlineStr">
         <is>
           <t>3</t>
@@ -31250,12 +31160,12 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -31264,32 +31174,28 @@
         </is>
       </c>
       <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -31300,13 +31206,13 @@
       <c r="D945" t="inlineStr"/>
       <c r="E945" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
@@ -31318,31 +31224,27 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
           <t>3</t>
@@ -31352,25 +31254,21 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
@@ -31382,17 +31280,17 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D948" t="inlineStr"/>
@@ -31408,139 +31306,159 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F951" t="inlineStr"/>
       <c r="G951" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr"/>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H953" t="inlineStr">
         <is>
           <t>3</t>
@@ -31550,23 +31468,31 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H954" t="inlineStr">
         <is>
           <t>3</t>
@@ -31576,57 +31502,61 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G956" t="inlineStr"/>
       <c r="H956" t="inlineStr">
         <is>
           <t>3</t>
@@ -31636,31 +31566,27 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
           <t>3</t>
@@ -31668,19 +31594,27 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
@@ -31690,137 +31624,145 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr"/>
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D960" t="inlineStr"/>
       <c r="E960" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H961" t="inlineStr">
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Bund/g Auction</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D963" t="inlineStr"/>
       <c r="E963" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
+      <c r="G963" t="inlineStr"/>
       <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
@@ -31830,139 +31772,163 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F964" t="inlineStr"/>
       <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F965" t="inlineStr"/>
       <c r="G965" t="inlineStr">
         <is>
-          <t>$ 1463M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr"/>
       <c r="G966" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D968" t="inlineStr"/>
       <c r="E968" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H968" t="inlineStr">
         <is>
           <t>3</t>
@@ -31972,23 +31938,31 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D969" t="inlineStr"/>
-      <c r="E969" t="inlineStr"/>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H969" t="inlineStr">
         <is>
           <t>3</t>
@@ -31998,23 +31972,27 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
       <c r="E970" t="inlineStr"/>
       <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H970" t="inlineStr">
         <is>
           <t>3</t>
@@ -32024,820 +32002,124 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D971" t="inlineStr"/>
-      <c r="E971" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E971" t="inlineStr"/>
       <c r="F971" t="inlineStr"/>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D972" t="inlineStr"/>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E972" t="inlineStr"/>
       <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D973" t="inlineStr"/>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E973" t="inlineStr"/>
       <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E974" t="inlineStr"/>
       <c r="F974" t="inlineStr"/>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D975" t="inlineStr"/>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E975" t="inlineStr"/>
       <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D976" t="inlineStr"/>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B977" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr"/>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr"/>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr"/>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr"/>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr"/>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr"/>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr"/>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr"/>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D987" t="inlineStr"/>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr"/>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr"/>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D991" t="inlineStr"/>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr"/>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr"/>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr"/>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr"/>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
         <is>
           <t>3</t>
         </is>
